--- a/Guild Digital/Example CHT application/forms/app/screening.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="327">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -665,13 +665,34 @@
     <t xml:space="preserve">Has the client received HPV Vaccine?</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${patient_age_in_years} &gt;= 9 and ${patient_age_in_years} &lt;= 45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">and ${sex} = 'female' </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">received_tt_vaccine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the client received TT vaccine?</t>
+  </si>
+  <si>
     <t xml:space="preserve">${patient_age_in_years} &gt;= 10 and ${patient_age_in_years} &lt;=24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">received_tt_vaccine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has the client received TT vaccine?</t>
   </si>
   <si>
     <t xml:space="preserve">select_one yes_no_unknown</t>
@@ -1025,7 +1046,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1045,6 +1066,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -1155,23 +1182,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,15 +1194,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1203,22 +1230,128 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N276"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="E82" activeCellId="0" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.54"/>
@@ -2402,7 +2535,7 @@
         <v>213</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>84</v>
@@ -2410,13 +2543,13 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>84</v>
@@ -2424,13 +2557,13 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>84</v>
@@ -2438,13 +2571,13 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>31</v>
@@ -2458,13 +2591,13 @@
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>84</v>
@@ -2475,10 +2608,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -2491,17 +2624,17 @@
     </row>
     <row r="86" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>22</v>
@@ -2515,14 +2648,14 @@
         <v>19</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>22</v>
@@ -2536,14 +2669,14 @@
         <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>22</v>
@@ -2557,14 +2690,14 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>22</v>
@@ -2583,13 +2716,13 @@
         <v>14</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2597,13 +2730,13 @@
         <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2611,13 +2744,13 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,10 +2758,10 @@
         <v>89</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2636,13 +2769,13 @@
         <v>89</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2650,10 +2783,10 @@
         <v>89</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>157</v>
@@ -2664,10 +2797,10 @@
         <v>89</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>129</v>
@@ -2678,10 +2811,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>106</v>
@@ -2692,10 +2825,10 @@
         <v>89</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2703,10 +2836,10 @@
         <v>89</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>201</v>
@@ -2717,13 +2850,13 @@
         <v>89</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2731,13 +2864,13 @@
         <v>89</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2745,13 +2878,13 @@
         <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2759,10 +2892,10 @@
         <v>89</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2943,8 +3076,8 @@
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2953,19 +3086,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D847"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="28.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="25.94"/>
@@ -2976,7 +3109,7 @@
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2985,29 +3118,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3015,90 +3148,90 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3107,24 +3240,24 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3134,37 +3267,37 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3172,80 +3305,80 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4069,8 +4202,8 @@
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4079,7 +4212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4091,7 +4224,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.34"/>
@@ -4101,40 +4234,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C2" s="13" t="n">
         <f aca="true">NOW()</f>
-        <v>45112.0226405007</v>
+        <v>45552.4779218179</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F2" s="12"/>
     </row>
@@ -5138,8 +5271,8 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
